--- a/南ひだ/出品材明細書印刷用_南飛騨.xlsx
+++ b/南ひだ/出品材明細書印刷用_南飛騨.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GifuForest_南ひだ\ExcelM_開発中\下呂\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A78874-484D-40B3-B1E2-645E65F7B4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BE5B03-E4AC-4F08-8ADC-8C3325A653F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="720" windowWidth="19590" windowHeight="10800" xr2:uid="{7A59FB25-FC69-4496-9E90-84EF8FFD24FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7A59FB25-FC69-4496-9E90-84EF8FFD24FF}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
@@ -664,13 +664,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>電話 0576-26-3202 / FAX 0576-26-2235</t>
-    <rPh sb="0" eb="2">
-      <t>デンワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>登録番号 T7-2000-0501-0661</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -721,14 +714,14 @@
     <rPh sb="34" eb="35">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>お知らせ</t>
     <rPh sb="1" eb="2">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>御出品材明細書兼仕入明細書　</t>
@@ -778,6 +771,10 @@
   </si>
   <si>
     <t>※材積(Ａ)は末口径が14cm以上、材積(Ｂ)は13㎝以下です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電話 0576-26-3202 / FAX 0576-26-2235</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -790,7 +787,7 @@
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,15 +839,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -920,6 +908,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1317,7 +1330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1342,127 +1355,67 @@
     <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1474,176 +1427,239 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="38" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1732,13 +1748,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>612322</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161585</xdr:rowOff>
+      <xdr:rowOff>93553</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361034</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171785</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1015878</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1767,7 +1783,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5851072" y="161585"/>
+          <a:off x="5851072" y="93553"/>
           <a:ext cx="1058400" cy="1047745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1775,6 +1791,186 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20087</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99333</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57604</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="二等辺三角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D38753-36BE-FD11-4B25-38D3BD293ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7011372" y="4372494"/>
+          <a:ext cx="104775" cy="79246"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20414</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>149677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99660</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="二等辺三角形 3" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA7596C-894A-49F3-8173-0618782219DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7008751" y="9785640"/>
+          <a:ext cx="110671" cy="79246"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>158752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>98297</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="二等辺三角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534F526D-DB46-4A3F-9736-E0DFFC735038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7007388" y="8372315"/>
+          <a:ext cx="110671" cy="79246"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2080,1309 +2276,1542 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="8.625" style="2"/>
+    <col min="1" max="9" width="8.625" style="2"/>
+    <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="1.625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="58"/>
-    </row>
-    <row r="2" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="107" t="s">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="105" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="59" t="s">
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="105" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="61" t="s">
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="58" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="105" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="58"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="103"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="102" t="s">
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="58"/>
-    </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="104"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="58"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="58"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="84">
         <f>+F33</f>
         <v>85800</v>
       </c>
-      <c r="H9" s="101"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="85"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="85"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="87" t="s">
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="87" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-    </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="78" t="s">
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10">
+      <c r="C13" s="52"/>
+      <c r="D13" s="53">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="E13" s="32"/>
+      <c r="F13" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="54">
         <v>0.08</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="53">
         <f>+ROUNDDOWN(D22*H13,0)</f>
         <v>8000</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="79"/>
-      <c r="B14" s="13" t="s">
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="104"/>
+      <c r="B14" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15">
+      <c r="C14" s="56"/>
+      <c r="D14" s="57">
         <f>50</f>
         <v>50</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="32"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15">
+      <c r="H14" s="58"/>
+      <c r="I14" s="57">
         <v>12000</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="79"/>
-      <c r="B15" s="81" t="s">
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="104"/>
+      <c r="B15" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="60">
         <f>10</f>
         <v>10</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="13" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="79"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="19" t="s">
+      <c r="H15" s="56"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="104"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="62">
         <v>0</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="21" t="s">
+      <c r="E16" s="32"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23">
+      <c r="H16" s="64"/>
+      <c r="I16" s="65">
         <f>+F31</f>
         <v>2000</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="79"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="79"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="13" t="s">
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="104"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="104"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="25">
+      <c r="H18" s="56"/>
+      <c r="I18" s="67">
         <f>SUM(I13:I16)</f>
         <v>22000</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="79"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="13" t="s">
+      <c r="J18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="104"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15">
+      <c r="H19" s="56"/>
+      <c r="I19" s="57">
         <f>+ROUND(I18*0.1,0)</f>
         <v>2200</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="79"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="26" t="s">
+      <c r="J19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="104"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="29">
+      <c r="H20" s="69"/>
+      <c r="I20" s="70">
         <f>SUM(I18:I19)</f>
         <v>24200</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="79"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="104"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="71">
         <v>10</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="79"/>
-      <c r="B22" s="13" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="104"/>
+      <c r="B22" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15">
+      <c r="C22" s="56"/>
+      <c r="D22" s="57">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="78" t="s">
+      <c r="F22" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-    </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="79"/>
-      <c r="B23" s="13" t="s">
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="104"/>
+      <c r="B23" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15">
+      <c r="C23" s="56"/>
+      <c r="D23" s="57">
         <f>+ROUND(D22*0.1,0)</f>
         <v>10000</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="104"/>
+      <c r="G23" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="18">
+      <c r="H23" s="74"/>
+      <c r="I23" s="61">
         <f>+ROUND(I22*0.1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="80"/>
-      <c r="B24" s="26" t="s">
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="105"/>
+      <c r="B24" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28">
+      <c r="C24" s="69"/>
+      <c r="D24" s="75">
         <f>SUM(D22:D23)</f>
         <v>110000</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="26" t="s">
+      <c r="F24" s="105"/>
+      <c r="G24" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="29">
+      <c r="H24" s="69"/>
+      <c r="I24" s="70">
         <f>SUM(I22:I23)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="60"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-    </row>
-    <row r="26" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="87" t="s">
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="86" t="s">
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="58"/>
-    </row>
-    <row r="27" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="90" t="s">
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="32"/>
+    </row>
+    <row r="27" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32">
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12">
         <f>+D24</f>
         <v>110000</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-    </row>
-    <row r="28" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="88" t="s">
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+    </row>
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35" t="s">
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="16">
         <f>+D23</f>
         <v>10000</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-    </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="97" t="s">
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+    </row>
+    <row r="29" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="38">
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="18">
         <v>0.8</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="19">
         <f>+ROUNDDOWN(F28*D29,0)</f>
         <v>8000</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-    </row>
-    <row r="30" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="97" t="s">
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+    </row>
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="38" t="s">
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="19">
         <f>+F27-F28+F29</f>
         <v>108000</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-    </row>
-    <row r="31" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="95" t="s">
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+    </row>
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="30" t="s">
+      <c r="B31" s="98"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="48">
+      <c r="E31" s="10"/>
+      <c r="F31" s="28">
         <f>+F28-F29</f>
         <v>2000</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-    </row>
-    <row r="32" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="99" t="s">
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+    </row>
+    <row r="32" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-    </row>
-    <row r="33" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="100"/>
-      <c r="B33" s="45">
+      <c r="G32" s="24"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+    </row>
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="102"/>
+      <c r="B33" s="25">
         <f>+D24</f>
         <v>110000</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="46">
+      <c r="C33" s="96"/>
+      <c r="D33" s="26">
         <f>+I20+I24</f>
         <v>24200</v>
       </c>
-      <c r="E33" s="94"/>
-      <c r="F33" s="46">
+      <c r="E33" s="96"/>
+      <c r="F33" s="26">
         <f>+B33-D33</f>
         <v>85800</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
     </row>
     <row r="34" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="58"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="58"/>
+      <c r="A35" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="58"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="58"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="92" t="s">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" spans="1:11" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="92"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="58"/>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="63" t="s">
+      <c r="F38" s="94"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="32"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="64" t="s">
+      <c r="F39" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="65" t="s">
+      <c r="G39" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="64" t="s">
+      <c r="H39" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="65" t="s">
+      <c r="I39" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="64" t="s">
+      <c r="J39" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="60"/>
-    </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="19"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="49"/>
-      <c r="G40" s="77"/>
-      <c r="J40" s="73"/>
-    </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="19"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="49"/>
-      <c r="G41" s="77"/>
-      <c r="J41" s="73"/>
-    </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="19"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="49"/>
-      <c r="G42" s="77"/>
-      <c r="J42" s="73"/>
-    </row>
-    <row r="43" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="19"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="49"/>
-      <c r="G43" s="77"/>
-      <c r="J43" s="73"/>
-    </row>
-    <row r="44" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="19"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="49"/>
-      <c r="G44" s="77"/>
-      <c r="J44" s="73"/>
-    </row>
-    <row r="45" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="19"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="49"/>
-      <c r="G45" s="77"/>
-      <c r="J45" s="73"/>
-    </row>
-    <row r="46" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="19"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="49"/>
-      <c r="G46" s="77"/>
-      <c r="J46" s="73"/>
-    </row>
-    <row r="47" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="19"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="49"/>
-      <c r="G47" s="77"/>
-      <c r="J47" s="73"/>
-    </row>
-    <row r="48" spans="1:11" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="19"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="49"/>
-      <c r="G48" s="77"/>
-      <c r="J48" s="73"/>
-    </row>
-    <row r="49" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="19"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="49"/>
-      <c r="G49" s="77"/>
-      <c r="J49" s="73"/>
-    </row>
-    <row r="50" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="19"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="49"/>
-      <c r="G50" s="77"/>
-      <c r="J50" s="73"/>
-    </row>
-    <row r="51" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="19"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="49"/>
-      <c r="G51" s="77"/>
-      <c r="J51" s="73"/>
-    </row>
-    <row r="52" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="19"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="49"/>
-      <c r="G52" s="77"/>
-      <c r="J52" s="73"/>
-    </row>
-    <row r="53" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="19"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="49"/>
-      <c r="G53" s="77"/>
-      <c r="J53" s="73"/>
-    </row>
-    <row r="54" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="19"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="49"/>
-      <c r="G54" s="77"/>
-      <c r="J54" s="73"/>
-    </row>
-    <row r="55" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="19"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="49"/>
-      <c r="G55" s="77"/>
-      <c r="J55" s="73"/>
-    </row>
-    <row r="56" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="19"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="49"/>
-      <c r="G56" s="77"/>
-      <c r="J56" s="73"/>
-    </row>
-    <row r="57" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="19"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="49"/>
-      <c r="G57" s="77"/>
-      <c r="J57" s="73"/>
-    </row>
-    <row r="58" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="19"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="49"/>
-      <c r="G58" s="77"/>
-      <c r="J58" s="73"/>
-    </row>
-    <row r="59" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="19"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="49"/>
-      <c r="G59" s="77"/>
-      <c r="J59" s="73"/>
-    </row>
-    <row r="60" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="66" t="s">
+      <c r="K39" s="34"/>
+    </row>
+    <row r="40" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="76"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="46"/>
+    </row>
+    <row r="41" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="76"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="46"/>
+    </row>
+    <row r="42" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="76"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="46"/>
+    </row>
+    <row r="43" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="76"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="46"/>
+    </row>
+    <row r="44" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="76"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="46"/>
+    </row>
+    <row r="45" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="76"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="46"/>
+    </row>
+    <row r="46" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="76"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="46"/>
+    </row>
+    <row r="47" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="76"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="46"/>
+    </row>
+    <row r="48" spans="1:11" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="76"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="46"/>
+    </row>
+    <row r="49" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="76"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="46"/>
+    </row>
+    <row r="50" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="76"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="46"/>
+    </row>
+    <row r="51" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="76"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="46"/>
+    </row>
+    <row r="52" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="76"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="46"/>
+    </row>
+    <row r="53" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="76"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="46"/>
+    </row>
+    <row r="54" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="76"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="46"/>
+    </row>
+    <row r="55" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="76"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="46"/>
+    </row>
+    <row r="56" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="46"/>
+    </row>
+    <row r="57" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-    </row>
-    <row r="61" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="70"/>
-      <c r="E61" s="49"/>
-      <c r="G61" s="51"/>
-    </row>
-    <row r="62" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="67" t="s">
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="46"/>
+    </row>
+    <row r="58" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="46"/>
+    </row>
+    <row r="59" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="70"/>
-      <c r="E62" s="49"/>
-      <c r="G62" s="51"/>
-    </row>
-    <row r="63" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="55" t="s">
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="46"/>
+    </row>
+    <row r="60" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="70"/>
-      <c r="E63" s="49"/>
-      <c r="G63" s="51"/>
-    </row>
-    <row r="64" spans="1:10" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="49"/>
-      <c r="G64" s="51"/>
-    </row>
-    <row r="65" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="19"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="49"/>
-      <c r="G65" s="51"/>
-    </row>
-    <row r="66" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="19"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="49"/>
-      <c r="G66" s="51"/>
-    </row>
-    <row r="67" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="19"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="49"/>
-      <c r="G67" s="51"/>
-    </row>
-    <row r="68" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="19"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="49"/>
-      <c r="G68" s="51"/>
-    </row>
-    <row r="69" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="19"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="49"/>
-      <c r="G69" s="51"/>
-    </row>
-    <row r="70" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="19"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="49"/>
-      <c r="G70" s="51"/>
-    </row>
-    <row r="71" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="19"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="49"/>
-      <c r="G71" s="51"/>
-    </row>
-    <row r="72" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="19"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="49"/>
-      <c r="G72" s="51"/>
-    </row>
-    <row r="73" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="19"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="49"/>
-      <c r="G73" s="51"/>
-    </row>
-    <row r="74" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="19"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="49"/>
-      <c r="G74" s="51"/>
-    </row>
-    <row r="75" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="19"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="49"/>
-      <c r="G75" s="51"/>
-    </row>
-    <row r="76" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="19"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="49"/>
-      <c r="G76" s="51"/>
-    </row>
-    <row r="77" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="19"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="49"/>
-      <c r="G77" s="51"/>
-    </row>
-    <row r="78" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="19"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="49"/>
-      <c r="G78" s="51"/>
-    </row>
-    <row r="79" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="19"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="49"/>
-      <c r="G79" s="51"/>
-    </row>
-    <row r="80" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="19"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="49"/>
-      <c r="G80" s="51"/>
-    </row>
-    <row r="81" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="19"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="49"/>
-      <c r="G81" s="51"/>
-    </row>
-    <row r="82" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="19"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="49"/>
-      <c r="G82" s="51"/>
-    </row>
-    <row r="83" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="19"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="49"/>
-      <c r="G83" s="51"/>
-    </row>
-    <row r="84" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="19"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="49"/>
-      <c r="G84" s="51"/>
-    </row>
-    <row r="85" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="19"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="49"/>
-      <c r="G85" s="51"/>
-    </row>
-    <row r="86" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="19"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="49"/>
-      <c r="G86" s="51"/>
-    </row>
-    <row r="87" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="19"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="49"/>
-      <c r="G87" s="51"/>
-    </row>
-    <row r="88" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="19"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="49"/>
-      <c r="G88" s="51"/>
-    </row>
-    <row r="89" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="19"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="49"/>
-      <c r="G89" s="51"/>
-    </row>
-    <row r="90" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="19"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="49"/>
-      <c r="G90" s="51"/>
-    </row>
-    <row r="91" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="19"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="49"/>
-      <c r="G91" s="51"/>
-    </row>
-    <row r="92" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="19"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="49"/>
-      <c r="G92" s="51"/>
-    </row>
-    <row r="93" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="19"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="49"/>
-      <c r="G93" s="51"/>
-    </row>
-    <row r="94" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="19"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="49"/>
-      <c r="G94" s="51"/>
-    </row>
-    <row r="95" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="19"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="49"/>
-      <c r="G95" s="51"/>
-    </row>
-    <row r="96" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="19"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="49"/>
-      <c r="G96" s="51"/>
-    </row>
-    <row r="97" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="19"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="49"/>
-      <c r="G97" s="51"/>
-    </row>
-    <row r="98" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="19"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="49"/>
-      <c r="G98" s="51"/>
-    </row>
-    <row r="99" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="19"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="49"/>
-      <c r="G99" s="51"/>
-    </row>
-    <row r="100" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="19"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="49"/>
-      <c r="G100" s="51"/>
-    </row>
-    <row r="101" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="19"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="49"/>
-      <c r="G101" s="51"/>
-    </row>
-    <row r="102" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="19"/>
-      <c r="D102" s="50"/>
-      <c r="E102" s="49"/>
-      <c r="G102" s="51"/>
-    </row>
-    <row r="103" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="19"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="49"/>
-      <c r="G103" s="51"/>
-    </row>
-    <row r="104" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="19"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="49"/>
-      <c r="G104" s="51"/>
-    </row>
-    <row r="105" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="19"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="49"/>
-      <c r="G105" s="51"/>
-    </row>
-    <row r="106" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="19"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="49"/>
-    </row>
-    <row r="107" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="19"/>
-      <c r="D107" s="50"/>
-      <c r="E107" s="49"/>
-    </row>
-    <row r="108" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="19"/>
-      <c r="D108" s="50"/>
-      <c r="E108" s="49"/>
-    </row>
-    <row r="109" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="19"/>
-      <c r="D109" s="50"/>
-      <c r="E109" s="49"/>
-    </row>
-    <row r="110" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="19"/>
-      <c r="D110" s="50"/>
-      <c r="E110" s="49"/>
-    </row>
-    <row r="111" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="19"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="49"/>
-    </row>
-    <row r="112" spans="1:7" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="19"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="49"/>
-    </row>
-    <row r="113" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="19"/>
-      <c r="D113" s="50"/>
-      <c r="E113" s="49"/>
-    </row>
-    <row r="114" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="19"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="49"/>
-    </row>
-    <row r="115" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="19"/>
-      <c r="D115" s="50"/>
-      <c r="E115" s="49"/>
-    </row>
-    <row r="116" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="19"/>
-      <c r="D116" s="50"/>
-      <c r="E116" s="49"/>
-    </row>
-    <row r="117" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="19"/>
-      <c r="D117" s="50"/>
-      <c r="E117" s="49"/>
-    </row>
-    <row r="118" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="19"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="49"/>
-    </row>
-    <row r="119" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="19"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="49"/>
-    </row>
-    <row r="120" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="19"/>
-      <c r="D120" s="50"/>
-      <c r="E120" s="49"/>
-    </row>
-    <row r="121" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="19"/>
-      <c r="D121" s="50"/>
-      <c r="E121" s="49"/>
-    </row>
-    <row r="122" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="19"/>
-      <c r="D122" s="50"/>
-      <c r="E122" s="49"/>
-    </row>
-    <row r="123" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="19"/>
-      <c r="D123" s="50"/>
-      <c r="E123" s="49"/>
-    </row>
-    <row r="124" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="19"/>
-      <c r="D124" s="50"/>
-      <c r="E124" s="49"/>
-    </row>
-    <row r="125" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="19"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="49"/>
-    </row>
-    <row r="126" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="19"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="49"/>
-    </row>
-    <row r="127" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="19"/>
-      <c r="D127" s="50"/>
-      <c r="E127" s="49"/>
-    </row>
-    <row r="128" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="19"/>
-      <c r="D128" s="50"/>
-      <c r="E128" s="49"/>
-    </row>
-    <row r="129" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="19"/>
-      <c r="E129" s="49"/>
-    </row>
-    <row r="130" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="19"/>
-      <c r="E130" s="49"/>
-    </row>
-    <row r="131" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="19"/>
-      <c r="E131" s="49"/>
-    </row>
-    <row r="132" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="19"/>
-      <c r="E132" s="49"/>
-    </row>
-    <row r="133" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="19"/>
-      <c r="E133" s="49"/>
-    </row>
-    <row r="134" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="19"/>
-      <c r="E134" s="49"/>
-    </row>
-    <row r="135" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="19"/>
-    </row>
-    <row r="136" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" spans="1:5" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="46"/>
+    </row>
+    <row r="61" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="76"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="76"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="46"/>
+    </row>
+    <row r="63" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="76"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="46"/>
+    </row>
+    <row r="64" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="76"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="46"/>
+    </row>
+    <row r="65" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="76"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="46"/>
+    </row>
+    <row r="66" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="76"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="46"/>
+    </row>
+    <row r="67" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="76"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="46"/>
+    </row>
+    <row r="68" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="76"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="46"/>
+    </row>
+    <row r="69" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="76"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="76"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="46"/>
+    </row>
+    <row r="71" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="76"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="46"/>
+    </row>
+    <row r="72" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="76"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="46"/>
+    </row>
+    <row r="73" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="76"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="46"/>
+    </row>
+    <row r="74" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="76"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="46"/>
+    </row>
+    <row r="75" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="76"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="46"/>
+    </row>
+    <row r="76" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="76"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="46"/>
+    </row>
+    <row r="77" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="76"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="46"/>
+    </row>
+    <row r="78" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="76"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="46"/>
+    </row>
+    <row r="79" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="76"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="46"/>
+    </row>
+    <row r="80" spans="1:10" s="8" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="76"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="46"/>
+    </row>
+    <row r="81" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="9"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="29"/>
+      <c r="G81" s="31"/>
+    </row>
+    <row r="82" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="9"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="29"/>
+      <c r="G82" s="31"/>
+    </row>
+    <row r="83" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="9"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="29"/>
+      <c r="G83" s="31"/>
+    </row>
+    <row r="84" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="9"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="29"/>
+      <c r="G84" s="31"/>
+    </row>
+    <row r="85" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="9"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="29"/>
+      <c r="G85" s="31"/>
+    </row>
+    <row r="86" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="9"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="29"/>
+      <c r="G86" s="31"/>
+    </row>
+    <row r="87" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="9"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="29"/>
+      <c r="G87" s="31"/>
+    </row>
+    <row r="88" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="9"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="29"/>
+      <c r="G88" s="31"/>
+    </row>
+    <row r="89" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="9"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="29"/>
+      <c r="G89" s="31"/>
+    </row>
+    <row r="90" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="9"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="29"/>
+      <c r="G90" s="31"/>
+    </row>
+    <row r="91" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="9"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="29"/>
+      <c r="G91" s="31"/>
+    </row>
+    <row r="92" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="9"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="29"/>
+      <c r="G92" s="31"/>
+    </row>
+    <row r="93" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="9"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="29"/>
+      <c r="G93" s="31"/>
+    </row>
+    <row r="94" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="9"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="29"/>
+      <c r="G94" s="31"/>
+    </row>
+    <row r="95" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="9"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="29"/>
+      <c r="G95" s="31"/>
+    </row>
+    <row r="96" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="9"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="29"/>
+      <c r="G96" s="31"/>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="9"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="29"/>
+      <c r="G97" s="31"/>
+    </row>
+    <row r="98" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="9"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="29"/>
+      <c r="G98" s="31"/>
+    </row>
+    <row r="99" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="9"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="29"/>
+      <c r="G99" s="31"/>
+    </row>
+    <row r="100" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="9"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="29"/>
+      <c r="G100" s="31"/>
+    </row>
+    <row r="101" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="9"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="29"/>
+      <c r="G101" s="31"/>
+    </row>
+    <row r="102" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="9"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="29"/>
+      <c r="G102" s="31"/>
+    </row>
+    <row r="103" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="9"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="29"/>
+      <c r="G103" s="31"/>
+    </row>
+    <row r="104" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="9"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="29"/>
+      <c r="G104" s="31"/>
+    </row>
+    <row r="105" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="9"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="29"/>
+      <c r="G105" s="31"/>
+    </row>
+    <row r="106" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="9"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="29"/>
+    </row>
+    <row r="107" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="9"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="29"/>
+    </row>
+    <row r="108" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="9"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="29"/>
+    </row>
+    <row r="109" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="9"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="29"/>
+    </row>
+    <row r="110" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="9"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="29"/>
+    </row>
+    <row r="111" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="9"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="29"/>
+    </row>
+    <row r="112" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="9"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="29"/>
+    </row>
+    <row r="113" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="9"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="29"/>
+    </row>
+    <row r="114" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="9"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="29"/>
+    </row>
+    <row r="115" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="9"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="29"/>
+    </row>
+    <row r="116" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="9"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="29"/>
+    </row>
+    <row r="117" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="9"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="29"/>
+    </row>
+    <row r="118" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="9"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="29"/>
+    </row>
+    <row r="119" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="9"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="29"/>
+    </row>
+    <row r="120" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="9"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="29"/>
+    </row>
+    <row r="121" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="9"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="29"/>
+    </row>
+    <row r="122" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="9"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="29"/>
+    </row>
+    <row r="123" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="9"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="29"/>
+    </row>
+    <row r="124" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="9"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="29"/>
+    </row>
+    <row r="125" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="9"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="29"/>
+    </row>
+    <row r="126" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="9"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="29"/>
+    </row>
+    <row r="127" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="9"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="29"/>
+    </row>
+    <row r="128" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="9"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="29"/>
+    </row>
+    <row r="129" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="9"/>
+      <c r="E129" s="29"/>
+    </row>
+    <row r="130" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="9"/>
+      <c r="E130" s="29"/>
+    </row>
+    <row r="131" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="9"/>
+      <c r="E131" s="29"/>
+    </row>
+    <row r="132" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="9"/>
+      <c r="E132" s="29"/>
+    </row>
+    <row r="133" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="9"/>
+      <c r="E133" s="29"/>
+    </row>
+    <row r="134" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="9"/>
+      <c r="E134" s="29"/>
+    </row>
+    <row r="135" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="9"/>
+    </row>
+    <row r="136" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" spans="1:5" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="F13:F20"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="H26:J34"/>
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="A28:C28"/>
@@ -3394,16 +3823,26 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="F13:F20"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="1.1023622047244095" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>